--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\mypengaduan\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D2999-B9D3-4690-9030-C5424C04F2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DBA13-C471-4D1F-AD24-1FD3113D2869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,15 +478,19 @@
       </c>
       <c r="E4" s="6">
         <f>SUM(B2:B42)/60</f>
-        <v>1.6666666666666667</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B5" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>

--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\mypengaduan\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mypengaduan\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DBA13-C471-4D1F-AD24-1FD3113D2869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9100BA-2243-4F80-824F-2F5DE8BF9E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="E4" s="6">
         <f>SUM(B2:B42)/60</f>
-        <v>2.0666666666666669</v>
+        <v>4.6833333333333336</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -493,15 +493,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B6" s="3">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B7" s="3">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2">
+        <v>45645</v>
+      </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mypengaduan\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9100BA-2243-4F80-824F-2F5DE8BF9E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AFABF0-297D-4947-997E-50A93059E129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Menit</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>Tanggal</t>
   </si>
+  <si>
+    <t>Target 17 Jam</t>
+  </si>
 </sst>
 </file>
 
@@ -55,10 +58,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -150,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +444,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +489,7 @@
       </c>
       <c r="E4" s="6">
         <f>SUM(B2:B42)/60</f>
-        <v>4.6833333333333336</v>
+        <v>6.6833333333333336</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -499,6 +510,9 @@
       <c r="B6" s="3">
         <v>70</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -512,11 +526,17 @@
       <c r="A8" s="2">
         <v>45645</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2">
+        <v>45661</v>
+      </c>
+      <c r="B9" s="3">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -652,5 +672,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mypengaduan\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AFABF0-297D-4947-997E-50A93059E129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E97F56D-444D-4908-9EE1-12E7492BEAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="E4" s="6">
         <f>SUM(B2:B42)/60</f>
-        <v>6.6833333333333336</v>
+        <v>8.35</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -539,12 +539,20 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B10" s="3">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B11" s="3">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>

--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mypengaduan\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E97F56D-444D-4908-9EE1-12E7492BEAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559B72D-297F-424B-B4AB-735EEB224401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="E4" s="6">
         <f>SUM(B2:B42)/60</f>
-        <v>8.35</v>
+        <v>8.6</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -555,8 +555,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>

--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mypengaduan\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559B72D-297F-424B-B4AB-735EEB224401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D683A-8658-4E56-8F85-A0AC8A40AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="E4" s="6">
         <f>SUM(B2:B42)/60</f>
-        <v>8.6</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -563,12 +563,20 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2">
+        <v>45691</v>
+      </c>
+      <c r="B13" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2">
+        <v>45692</v>
+      </c>
+      <c r="B14" s="3">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
